--- a/imalatPMI.xlsx
+++ b/imalatPMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA741D86-3648-4992-875C-D871F5897EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE9E68-17BD-4F10-955C-7A71F397EFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91492052-A9AD-4601-AC56-0C6C1C05CB43}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>Yayınlanma Tarihi</t>
   </si>
@@ -798,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53C976E-9D00-40A3-ABBD-2C9DFA1844C0}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="Q114" sqref="Q114"/>
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1787,12 +1787,20 @@
       </c>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="1:3" ht="24">
+    <row r="110" spans="1:3" ht="24.75" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="10">
         <v>45.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24">
+      <c r="A111" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="10">
+        <v>48.3</v>
       </c>
     </row>
   </sheetData>

--- a/imalatPMI.xlsx
+++ b/imalatPMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE9E68-17BD-4F10-955C-7A71F397EFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82229E5C-0074-43F6-9B9E-949D57E4CA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91492052-A9AD-4601-AC56-0C6C1C05CB43}"/>
   </bookViews>
@@ -798,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53C976E-9D00-40A3-ABBD-2C9DFA1844C0}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1803,6 +1803,11 @@
         <v>48.3</v>
       </c>
     </row>
+    <row r="112" spans="1:3">
+      <c r="B112" s="10">
+        <v>49.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imalatPMI.xlsx
+++ b/imalatPMI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82229E5C-0074-43F6-9B9E-949D57E4CA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6323FB-AE21-40C5-871E-95446967303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91492052-A9AD-4601-AC56-0C6C1C05CB43}"/>
+    <workbookView xWindow="7830" yWindow="4185" windowWidth="20970" windowHeight="11295" xr2:uid="{91492052-A9AD-4601-AC56-0C6C1C05CB43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -798,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53C976E-9D00-40A3-ABBD-2C9DFA1844C0}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1808,6 +1808,11 @@
         <v>49.1</v>
       </c>
     </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="10">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imalatPMI.xlsx
+++ b/imalatPMI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\BuyumeTahmin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6323FB-AE21-40C5-871E-95446967303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB63BC1D-B1A9-4AAF-B056-C385DD57D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="4185" windowWidth="20970" windowHeight="11295" xr2:uid="{91492052-A9AD-4601-AC56-0C6C1C05CB43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91492052-A9AD-4601-AC56-0C6C1C05CB43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Yayınlanma Tarihi</t>
   </si>
@@ -452,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -479,9 +479,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,15 +795,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53C976E-9D00-40A3-ABBD-2C9DFA1844C0}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,1003 +815,1007 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3">
+      <c r="B2">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B7">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B8" s="4">
         <v>44.3</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A3" s="6" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B9" s="7">
         <v>47.8</v>
       </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B10" s="7">
         <v>47.2</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B11" s="7">
         <v>47.9</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B12" s="7">
         <v>48.4</v>
       </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A7" s="6" t="s">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B13" s="7">
         <v>49.3</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A8" s="6" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B14" s="7">
         <v>50</v>
       </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A9" s="6" t="s">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B15" s="7">
         <v>50.2</v>
       </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A10" s="6" t="s">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B16" s="7">
         <v>49.2</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A11" s="6" t="s">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B17" s="7">
         <v>47.4</v>
       </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B18" s="7">
         <v>47.2</v>
       </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A13" s="6" t="s">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B19" s="7">
         <v>48.4</v>
       </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A14" s="6" t="s">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B20" s="7">
         <v>49.6</v>
       </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A15" s="6" t="s">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B21" s="7">
         <v>49</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A16" s="6" t="s">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B22" s="7">
         <v>49.9</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A17" s="6" t="s">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B23" s="7">
         <v>51.5</v>
       </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A18" s="6" t="s">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B24" s="7">
         <v>51.5</v>
       </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A19" s="6" t="s">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B25" s="7">
         <v>51.5</v>
       </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A20" s="6" t="s">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B26" s="7">
         <v>50.9</v>
       </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A21" s="6" t="s">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B27" s="7">
         <v>50.1</v>
       </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A22" s="6" t="s">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B28" s="7">
         <v>50.1</v>
       </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A23" s="6" t="s">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A29" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" s="7">
-        <v>48.1</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="7">
-        <v>45.7</v>
-      </c>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7">
-        <v>46.4</v>
-      </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="7">
-        <v>46.9</v>
-      </c>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="7">
-        <v>47.4</v>
-      </c>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="7">
-        <v>46.9</v>
-      </c>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A29" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="B29" s="7">
         <v>48.1</v>
       </c>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3" ht="24.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
       <c r="A30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7">
+        <v>45.7</v>
+      </c>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7">
+        <v>46.4</v>
+      </c>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7">
+        <v>46.9</v>
+      </c>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7">
+        <v>47.4</v>
+      </c>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7">
+        <v>46.9</v>
+      </c>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B36" s="7">
         <v>49.2</v>
       </c>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A31" s="6" t="s">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B37" s="7">
         <v>49.2</v>
       </c>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A32" s="6" t="s">
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B38" s="7">
         <v>49.4</v>
       </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A33" s="6" t="s">
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B39" s="7">
         <v>50.4</v>
       </c>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A34" s="6" t="s">
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B40" s="7">
         <v>50.5</v>
       </c>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A35" s="6" t="s">
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B41" s="7">
         <v>52.1</v>
       </c>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A36" s="6" t="s">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B42" s="7">
         <v>52</v>
       </c>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A37" s="6" t="s">
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B43" s="7">
         <v>51.2</v>
       </c>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A38" s="6" t="s">
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B44" s="7">
         <v>52.5</v>
       </c>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A39" s="6" t="s">
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B45" s="7">
         <v>54.1</v>
       </c>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A40" s="6" t="s">
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B46" s="7">
         <v>54</v>
       </c>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A41" s="6" t="s">
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B47" s="7">
         <v>51.3</v>
       </c>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A42" s="6" t="s">
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A48" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B48" s="7">
         <v>49.3</v>
       </c>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A43" s="6" t="s">
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B49" s="7">
         <v>50.4</v>
       </c>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A44" s="6" t="s">
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B50" s="7">
         <v>52.6</v>
       </c>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A45" s="6" t="s">
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B51" s="7">
         <v>51.7</v>
       </c>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A46" s="6" t="s">
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B52" s="7">
         <v>54.4</v>
       </c>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A47" s="6" t="s">
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A53" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B53" s="7">
         <v>50.8</v>
       </c>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A48" s="6" t="s">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B54" s="7">
         <v>51.4</v>
       </c>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A49" s="6" t="s">
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A55" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B55" s="7">
         <v>53.9</v>
       </c>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A50" s="6" t="s">
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B56" s="7">
         <v>52.8</v>
       </c>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A51" s="6" t="s">
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A57" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B57" s="7">
         <v>54.3</v>
       </c>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A52" s="6" t="s">
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B58" s="7">
         <v>56.9</v>
       </c>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A53" s="6" t="s">
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A59" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B59" s="7">
         <v>53.9</v>
       </c>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A54" s="6" t="s">
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B60" s="7">
         <v>40.9</v>
       </c>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A55" s="6" t="s">
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B61" s="7">
         <v>33.4</v>
       </c>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A56" s="6" t="s">
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B62" s="7">
         <v>48.1</v>
       </c>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A57" s="6" t="s">
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A63" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B63" s="7">
         <v>52.4</v>
       </c>
-      <c r="C57" s="8"/>
-    </row>
-    <row r="58" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A58" s="6" t="s">
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B64" s="7">
         <v>51.3</v>
       </c>
-      <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A59" s="6" t="s">
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A65" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B65" s="7">
         <v>49.5</v>
       </c>
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A60" s="6" t="s">
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B66" s="7">
         <v>49.5</v>
       </c>
-      <c r="C60" s="8"/>
-    </row>
-    <row r="61" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A61" s="6" t="s">
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A67" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B67" s="7">
         <v>49</v>
       </c>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A62" s="6" t="s">
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A68" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B68" s="7">
         <v>50</v>
       </c>
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A63" s="6" t="s">
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A69" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B69" s="7">
         <v>48</v>
       </c>
-      <c r="C63" s="8"/>
-    </row>
-    <row r="64" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A64" s="6" t="s">
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A70" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B70" s="7">
         <v>46.7</v>
       </c>
-      <c r="C64" s="8"/>
-    </row>
-    <row r="65" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A65" s="6" t="s">
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A71" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B71" s="7">
         <v>47.9</v>
       </c>
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A66" s="6" t="s">
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B72" s="7">
         <v>45.3</v>
       </c>
-      <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A67" s="6" t="s">
+      <c r="C72" s="8"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A73" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B73" s="7">
         <v>46.8</v>
       </c>
-      <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A68" s="6" t="s">
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A74" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B74" s="7">
         <v>47.2</v>
       </c>
-      <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A69" s="6" t="s">
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A75" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B69" s="7">
-        <v>46.4</v>
-      </c>
-      <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A70" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="7">
-        <v>44.2</v>
-      </c>
-      <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A71" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="7">
-        <v>44.2</v>
-      </c>
-      <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A72" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="7">
-        <v>44.7</v>
-      </c>
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A73" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="7">
-        <v>44.3</v>
-      </c>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A74" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="7">
-        <v>42.7</v>
-      </c>
-      <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A75" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="B75" s="7">
         <v>46.4</v>
       </c>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3" ht="24.75" thickBot="1">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1">
       <c r="A76" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A77" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A78" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7">
+        <v>44.7</v>
+      </c>
+      <c r="C78" s="8"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A79" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="C79" s="8"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A80" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7">
+        <v>42.7</v>
+      </c>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A81" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7">
+        <v>46.4</v>
+      </c>
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A82" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B82" s="7">
         <v>49</v>
       </c>
-      <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A77" s="6" t="s">
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A83" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B83" s="7">
         <v>46.8</v>
       </c>
-      <c r="C77" s="8"/>
-    </row>
-    <row r="78" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A78" s="6" t="s">
+      <c r="C83" s="8"/>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A84" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B84" s="7">
         <v>46.4</v>
       </c>
-      <c r="C78" s="8"/>
-    </row>
-    <row r="79" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A79" s="6" t="s">
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A85" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B85" s="7">
         <v>48.9</v>
       </c>
-      <c r="C79" s="8"/>
-    </row>
-    <row r="80" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A80" s="6" t="s">
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A86" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B86" s="7">
         <v>51.8</v>
       </c>
-      <c r="C80" s="8"/>
-    </row>
-    <row r="81" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A81" s="6" t="s">
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A87" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B87" s="7">
         <v>55.6</v>
       </c>
-      <c r="C81" s="8"/>
-    </row>
-    <row r="82" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A82" s="6" t="s">
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A88" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B88" s="7">
         <v>55.7</v>
       </c>
-      <c r="C82" s="8"/>
-    </row>
-    <row r="83" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A83" s="6" t="s">
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A89" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B89" s="7">
         <v>54.9</v>
       </c>
-      <c r="C83" s="8"/>
-    </row>
-    <row r="84" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A84" s="6" t="s">
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A90" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B90" s="7">
         <v>52.9</v>
       </c>
-      <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A85" s="6" t="s">
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A91" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B91" s="7">
         <v>52.8</v>
       </c>
-      <c r="C85" s="8"/>
-    </row>
-    <row r="86" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A86" s="6" t="s">
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A92" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B92" s="7">
         <v>53.5</v>
       </c>
-      <c r="C86" s="8"/>
-    </row>
-    <row r="87" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A87" s="6" t="s">
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A93" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B93" s="7">
         <v>55.3</v>
       </c>
-      <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A88" s="6" t="s">
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A94" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B94" s="7">
         <v>53.6</v>
       </c>
-      <c r="C88" s="8"/>
-    </row>
-    <row r="89" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A89" s="6" t="s">
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A95" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B95" s="7">
         <v>54.7</v>
       </c>
-      <c r="C89" s="8"/>
-    </row>
-    <row r="90" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A90" s="6" t="s">
+      <c r="C95" s="8"/>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A96" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B96" s="7">
         <v>53.5</v>
       </c>
-      <c r="C90" s="8"/>
-    </row>
-    <row r="91" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A91" s="6" t="s">
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A97" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B97" s="7">
         <v>51.7</v>
       </c>
-      <c r="C91" s="8"/>
-    </row>
-    <row r="92" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A92" s="6" t="s">
+      <c r="C97" s="8"/>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A98" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B98" s="7">
         <v>52.3</v>
       </c>
-      <c r="C92" s="8"/>
-    </row>
-    <row r="93" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A93" s="6" t="s">
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A99" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B99" s="7">
         <v>49.7</v>
       </c>
-      <c r="C93" s="8"/>
-    </row>
-    <row r="94" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A94" s="6" t="s">
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A100" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B100" s="7">
         <v>48.7</v>
       </c>
-      <c r="C94" s="8"/>
-    </row>
-    <row r="95" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A95" s="6" t="s">
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A101" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B101" s="7">
         <v>47.7</v>
       </c>
-      <c r="C95" s="8"/>
-    </row>
-    <row r="96" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A96" s="6" t="s">
+      <c r="C101" s="8"/>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A102" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B102" s="7">
         <v>48.8</v>
       </c>
-      <c r="C96" s="8"/>
-    </row>
-    <row r="97" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A97" s="6" t="s">
+      <c r="C102" s="8"/>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A103" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B103" s="7">
         <v>49.8</v>
       </c>
-      <c r="C97" s="8"/>
-    </row>
-    <row r="98" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A98" s="6" t="s">
+      <c r="C103" s="8"/>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B104" s="7">
         <v>48.3</v>
       </c>
-      <c r="C98" s="8"/>
-    </row>
-    <row r="99" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A99" s="6" t="s">
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A105" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B105" s="7">
         <v>47</v>
       </c>
-      <c r="C99" s="8"/>
-    </row>
-    <row r="100" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A100" s="6" t="s">
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B106" s="7">
         <v>47.6</v>
       </c>
-      <c r="C100" s="8"/>
-    </row>
-    <row r="101" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A101" s="6" t="s">
+      <c r="C106" s="8"/>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A107" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B107" s="7">
         <v>47.4</v>
       </c>
-      <c r="C101" s="8"/>
-    </row>
-    <row r="102" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A102" s="6" t="s">
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A108" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B108" s="7">
         <v>49.4</v>
       </c>
-      <c r="C102" s="8"/>
-    </row>
-    <row r="103" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A103" s="6" t="s">
+      <c r="C108" s="8"/>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A109" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B109" s="7">
         <v>48.9</v>
       </c>
-      <c r="C103" s="8"/>
-    </row>
-    <row r="104" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A104" s="6" t="s">
+      <c r="C109" s="8"/>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A110" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B110" s="7">
         <v>49.2</v>
       </c>
-      <c r="C104" s="8"/>
-    </row>
-    <row r="105" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A105" s="6" t="s">
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A111" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B111" s="7">
         <v>50.3</v>
       </c>
-      <c r="C105" s="8"/>
-    </row>
-    <row r="106" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A106" s="6" t="s">
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A112" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B112" s="7">
         <v>50.9</v>
       </c>
-      <c r="C106" s="8"/>
-    </row>
-    <row r="107" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A107" s="6" t="s">
+      <c r="C112" s="8"/>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A113" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B113" s="9">
         <v>52.2</v>
       </c>
-      <c r="C107" s="8"/>
-    </row>
-    <row r="108" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A108" s="6" t="s">
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A114" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B114" s="9">
         <v>50.9</v>
       </c>
-      <c r="C108" s="8"/>
-    </row>
-    <row r="109" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A109" s="6" t="s">
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B115" s="7">
         <v>49.5</v>
       </c>
-      <c r="C109" s="8"/>
-    </row>
-    <row r="110" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A110" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="10">
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="24">
-      <c r="A111" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" s="10">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="B112" s="10">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="10">
-        <v>48</v>
-      </c>
+      <c r="C115" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imalatPMI.xlsx
+++ b/imalatPMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB63BC1D-B1A9-4AAF-B056-C385DD57D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF902BBB-9A2D-47AF-A8BF-661A2C9BDD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91492052-A9AD-4601-AC56-0C6C1C05CB43}"/>
   </bookViews>
@@ -795,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53C976E-9D00-40A3-ABBD-2C9DFA1844C0}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,176 +822,172 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3">
-        <v>48.3</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4">
-        <v>48</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5">
-        <v>49.6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B7">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B8">
         <v>45.8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>44.3</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7">
-        <v>47.8</v>
-      </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7">
-        <v>47.2</v>
+        <v>47.8</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="7">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7">
-        <v>48.4</v>
+        <v>47.9</v>
       </c>
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1">
       <c r="A13" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7">
-        <v>49.3</v>
+        <v>48.4</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7">
-        <v>50</v>
+        <v>49.3</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1">
       <c r="A16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7">
-        <v>49.2</v>
+        <v>50.2</v>
       </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7">
-        <v>47.4</v>
+        <v>49.2</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
       <c r="A18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
       <c r="A19" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7">
-        <v>48.4</v>
+        <v>47.2</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1">
       <c r="A20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7">
-        <v>49.6</v>
+        <v>48.4</v>
       </c>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="7">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="7">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7">
-        <v>51.5</v>
+        <v>49.9</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1">
       <c r="A24" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="7">
         <v>51.5</v>
@@ -1000,7 +996,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1">
       <c r="A25" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="7">
         <v>51.5</v>
@@ -1009,25 +1005,25 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1">
       <c r="A26" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="7">
-        <v>50.9</v>
+        <v>51.5</v>
       </c>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1">
       <c r="A27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="7">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1">
       <c r="A28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="7">
         <v>50.1</v>
@@ -1036,79 +1032,79 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
       <c r="A29" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="7">
-        <v>48.1</v>
+        <v>50.1</v>
       </c>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
       <c r="A30" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="7">
-        <v>45.7</v>
+        <v>48.1</v>
       </c>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1">
       <c r="A31" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="7">
-        <v>46.4</v>
+        <v>45.7</v>
       </c>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1">
       <c r="A32" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="7">
-        <v>46.9</v>
+        <v>46.4</v>
       </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1">
       <c r="A33" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="7">
-        <v>47.4</v>
+        <v>46.9</v>
       </c>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1">
       <c r="A34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="7">
-        <v>46.9</v>
+        <v>47.4</v>
       </c>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1">
       <c r="A35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="7">
-        <v>48.1</v>
+        <v>46.9</v>
       </c>
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="7">
-        <v>49.2</v>
+        <v>48.1</v>
       </c>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1">
       <c r="A37" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="7">
         <v>49.2</v>
@@ -1117,259 +1113,259 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="7">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1">
       <c r="A39" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="7">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1">
       <c r="A40" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="7">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1">
       <c r="A41" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="7">
-        <v>52.1</v>
+        <v>50.5</v>
       </c>
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1">
       <c r="A42" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="7">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1">
       <c r="A43" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="7">
-        <v>51.2</v>
+        <v>52</v>
       </c>
       <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1">
       <c r="A44" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="7">
-        <v>52.5</v>
+        <v>51.2</v>
       </c>
       <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1">
       <c r="A45" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="7">
-        <v>54.1</v>
+        <v>52.5</v>
       </c>
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" thickBot="1">
       <c r="A46" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="7">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1">
       <c r="A47" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="7">
-        <v>51.3</v>
+        <v>54</v>
       </c>
       <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1">
       <c r="A48" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="7">
-        <v>49.3</v>
+        <v>51.3</v>
       </c>
       <c r="C48" s="8"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="7">
-        <v>50.4</v>
+        <v>49.3</v>
       </c>
       <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1">
       <c r="A50" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="7">
-        <v>52.6</v>
+        <v>50.4</v>
       </c>
       <c r="C50" s="8"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="7">
-        <v>51.7</v>
+        <v>52.6</v>
       </c>
       <c r="C51" s="8"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1">
       <c r="A52" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="7">
-        <v>54.4</v>
+        <v>51.7</v>
       </c>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1">
       <c r="A53" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="7">
-        <v>50.8</v>
+        <v>54.4</v>
       </c>
       <c r="C53" s="8"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="7">
-        <v>51.4</v>
+        <v>50.8</v>
       </c>
       <c r="C54" s="8"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1">
       <c r="A55" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="7">
-        <v>53.9</v>
+        <v>51.4</v>
       </c>
       <c r="C55" s="8"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1">
       <c r="A56" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="7">
-        <v>52.8</v>
+        <v>53.9</v>
       </c>
       <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1">
       <c r="A57" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="7">
-        <v>54.3</v>
+        <v>52.8</v>
       </c>
       <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1">
       <c r="A58" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="7">
-        <v>56.9</v>
+        <v>54.3</v>
       </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1">
       <c r="A59" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="7">
-        <v>53.9</v>
+        <v>56.9</v>
       </c>
       <c r="C59" s="8"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1">
       <c r="A60" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="7">
-        <v>40.9</v>
+        <v>53.9</v>
       </c>
       <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1">
       <c r="A61" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="7">
-        <v>33.4</v>
+        <v>40.9</v>
       </c>
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1">
       <c r="A62" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="7">
-        <v>48.1</v>
+        <v>33.4</v>
       </c>
       <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1">
       <c r="A63" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="7">
-        <v>52.4</v>
+        <v>48.1</v>
       </c>
       <c r="C63" s="8"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1">
       <c r="A64" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="7">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1">
       <c r="A65" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="7">
-        <v>49.5</v>
+        <v>51.3</v>
       </c>
       <c r="C65" s="8"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1">
       <c r="A66" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="7">
         <v>49.5</v>
@@ -1378,97 +1374,97 @@
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1">
       <c r="A67" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="7">
-        <v>49</v>
+        <v>49.5</v>
       </c>
       <c r="C67" s="8"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1">
       <c r="A68" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1">
       <c r="A69" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1">
       <c r="A70" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="7">
-        <v>46.7</v>
+        <v>48</v>
       </c>
       <c r="C70" s="8"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1">
       <c r="A71" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="7">
-        <v>47.9</v>
+        <v>46.7</v>
       </c>
       <c r="C71" s="8"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1">
       <c r="A72" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="7">
-        <v>45.3</v>
+        <v>47.9</v>
       </c>
       <c r="C72" s="8"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1">
       <c r="A73" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="7">
-        <v>46.8</v>
+        <v>45.3</v>
       </c>
       <c r="C73" s="8"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1">
       <c r="A74" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="7">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
       <c r="C74" s="8"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1">
       <c r="A75" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="7">
-        <v>46.4</v>
+        <v>47.2</v>
       </c>
       <c r="C75" s="8"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1">
       <c r="A76" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="7">
-        <v>44.2</v>
+        <v>46.4</v>
       </c>
       <c r="C76" s="8"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1">
       <c r="A77" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="7">
         <v>44.2</v>
@@ -1477,345 +1473,354 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1">
       <c r="A78" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="7">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="C78" s="8"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1">
       <c r="A79" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="7">
-        <v>44.3</v>
+        <v>44.7</v>
       </c>
       <c r="C79" s="8"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1">
       <c r="A80" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B80" s="7">
-        <v>42.7</v>
+        <v>44.3</v>
       </c>
       <c r="C80" s="8"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1">
       <c r="A81" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B81" s="7">
-        <v>46.4</v>
+        <v>42.7</v>
       </c>
       <c r="C81" s="8"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1">
       <c r="A82" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" s="7">
-        <v>49</v>
+        <v>46.4</v>
       </c>
       <c r="C82" s="8"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1">
       <c r="A83" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" s="7">
-        <v>46.8</v>
+        <v>49</v>
       </c>
       <c r="C83" s="8"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1">
       <c r="A84" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B84" s="7">
-        <v>46.4</v>
+        <v>46.8</v>
       </c>
       <c r="C84" s="8"/>
     </row>
     <row r="85" spans="1:3" ht="15.75" thickBot="1">
       <c r="A85" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B85" s="7">
-        <v>48.9</v>
+        <v>46.4</v>
       </c>
       <c r="C85" s="8"/>
     </row>
     <row r="86" spans="1:3" ht="15.75" thickBot="1">
       <c r="A86" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86" s="7">
-        <v>51.8</v>
+        <v>48.9</v>
       </c>
       <c r="C86" s="8"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1">
       <c r="A87" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87" s="7">
-        <v>55.6</v>
+        <v>51.8</v>
       </c>
       <c r="C87" s="8"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1">
       <c r="A88" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="7">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="C88" s="8"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1">
       <c r="A89" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="7">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="C89" s="8"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1">
       <c r="A90" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="7">
-        <v>52.9</v>
+        <v>54.9</v>
       </c>
       <c r="C90" s="8"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1">
       <c r="A91" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="7">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C91" s="8"/>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1">
       <c r="A92" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="7">
-        <v>53.5</v>
+        <v>52.8</v>
       </c>
       <c r="C92" s="8"/>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1">
       <c r="A93" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="7">
-        <v>55.3</v>
+        <v>53.5</v>
       </c>
       <c r="C93" s="8"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1">
       <c r="A94" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="7">
-        <v>53.6</v>
+        <v>55.3</v>
       </c>
       <c r="C94" s="8"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1">
       <c r="A95" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="7">
-        <v>54.7</v>
+        <v>53.6</v>
       </c>
       <c r="C95" s="8"/>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1">
       <c r="A96" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="7">
-        <v>53.5</v>
+        <v>54.7</v>
       </c>
       <c r="C96" s="8"/>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1">
       <c r="A97" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="7">
-        <v>51.7</v>
+        <v>53.5</v>
       </c>
       <c r="C97" s="8"/>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1">
       <c r="A98" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="7">
-        <v>52.3</v>
+        <v>51.7</v>
       </c>
       <c r="C98" s="8"/>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1">
       <c r="A99" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="7">
-        <v>49.7</v>
+        <v>52.3</v>
       </c>
       <c r="C99" s="8"/>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1">
       <c r="A100" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="7">
-        <v>48.7</v>
+        <v>49.7</v>
       </c>
       <c r="C100" s="8"/>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1">
       <c r="A101" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="7">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="C101" s="8"/>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1">
       <c r="A102" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="7">
-        <v>48.8</v>
+        <v>47.7</v>
       </c>
       <c r="C102" s="8"/>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1">
       <c r="A103" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="7">
-        <v>49.8</v>
+        <v>48.8</v>
       </c>
       <c r="C103" s="8"/>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1">
       <c r="A104" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" s="7">
-        <v>48.3</v>
+        <v>49.8</v>
       </c>
       <c r="C104" s="8"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1">
       <c r="A105" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="7">
-        <v>47</v>
+        <v>48.3</v>
       </c>
       <c r="C105" s="8"/>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1">
       <c r="A106" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106" s="7">
-        <v>47.6</v>
+        <v>47</v>
       </c>
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1">
       <c r="A107" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="7">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="C107" s="8"/>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1">
       <c r="A108" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="7">
-        <v>49.4</v>
+        <v>47.4</v>
       </c>
       <c r="C108" s="8"/>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1">
       <c r="A109" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109" s="7">
-        <v>48.9</v>
+        <v>49.4</v>
       </c>
       <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1">
       <c r="A110" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" s="7">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="C110" s="8"/>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1">
       <c r="A111" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" s="7">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C111" s="8"/>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1">
       <c r="A112" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="7">
-        <v>50.9</v>
+        <v>50.3</v>
       </c>
       <c r="C112" s="8"/>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1">
       <c r="A113" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B113" s="9">
-        <v>52.2</v>
+        <v>106</v>
+      </c>
+      <c r="B113" s="7">
+        <v>50.9</v>
       </c>
       <c r="C113" s="8"/>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1">
       <c r="A114" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="9">
+        <v>52.2</v>
+      </c>
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A115" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B115" s="9">
         <v>50.9</v>
       </c>
-      <c r="C114" s="8"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="6" t="s">
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B116" s="7">
         <v>49.5</v>
       </c>
-      <c r="C115" s="8"/>
+      <c r="C116" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
